--- a/biology/Botanique/Viola_cucullata/Viola_cucullata.xlsx
+++ b/biology/Botanique/Viola_cucullata/Viola_cucullata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Viola cucullata, en français la violette cucullée, est une espèce de violettes du sous-genre Viola du genre Viola.
 Son épithète spécifique vient du latin cucullus ('cornet' ou 'capuchon'), allusion au mode de préfoliation (conformation des feuilles précédant leur déploiement) des violettes, qui n'a pourtant rien de spécifique à l'espèce.
